--- a/biology/Botanique/Line_Renaud_(rose)/Line_Renaud_(rose).xlsx
+++ b/biology/Botanique/Line_Renaud_(rose)/Line_Renaud_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La 'Line Renaud' est une variété de rosier créée en France par Meilland International et commercialisée en 2006[1]. Elle est dédiée à l'actrice française Line Renaud. Elle s'appelle 'Elbflorenz'[2] dans les pays germanophones.
+La 'Line Renaud' est une variété de rosier créée en France par Meilland International et commercialisée en 2006. Elle est dédiée à l'actrice française Line Renaud. Elle s'appelle 'Elbflorenz' dans les pays germanophones.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Obtention</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créée au centre de recherche Meilland du Cannet-des-Maures, la rose 'Line Renaud' est issue d'un croisement réalisé en 1997, qui a germé en 1998 et a été sélectionnée parmi des milliers de plants en plusieurs étapes[3],[4].
-Origine génétique : 'Aachener Dom' × ('Louis de Funès' × 'Graham Thomas')[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée au centre de recherche Meilland du Cannet-des-Maures, la rose 'Line Renaud' est issue d'un croisement réalisé en 1997, qui a germé en 1998 et a été sélectionnée parmi des milliers de plants en plusieurs étapes,.
+Origine génétique : 'Aachener Dom' × ('Louis de Funès' × 'Graham Thomas').
 </t>
         </is>
       </c>
@@ -544,15 +558,17 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un rosier très épineux, qui se ramifie seulement en dessous des fleurs, au feuillage vert foncé très développé[4],[5].
-Il émet des pousses pouvant atteindre 120 cm de haut[5]. 
-Son port est dressé et buissonnant[6]. 
-La floraison commence en mai ou en juin et se poursuit jusqu'au gelées (floraion remontante)[3].
-Les fleurs, moyennes, très doubles, très parfumées, de 9 à 10 cm de diamètre, sont groupées par une à quatre par tige[4].
-La couleur des fleurs a été décrite comme rose, rose foncé, ou fuchsia, dans le style de roses anciennes ou évoquant des pivoines[1],[7].
-Les pétales fermes confèrent à cette rose une bonne résistance à la pluie. Les pétales intérieurs sont parfois tourbillonnants ou écartelés, avec souvent une bordure plus claire et parfois crénelée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un rosier très épineux, qui se ramifie seulement en dessous des fleurs, au feuillage vert foncé très développé,.
+Il émet des pousses pouvant atteindre 120 cm de haut. 
+Son port est dressé et buissonnant. 
+La floraison commence en mai ou en juin et se poursuit jusqu'au gelées (floraion remontante).
+Les fleurs, moyennes, très doubles, très parfumées, de 9 à 10 cm de diamètre, sont groupées par une à quatre par tige.
+La couleur des fleurs a été décrite comme rose, rose foncé, ou fuchsia, dans le style de roses anciennes ou évoquant des pivoines,.
+Les pétales fermes confèrent à cette rose une bonne résistance à la pluie. Les pétales intérieurs sont parfois tourbillonnants ou écartelés, avec souvent une bordure plus claire et parfois crénelée.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La rose 'Line Renaud' a obtenu treize prix dans les concours de roses internationaux, et notamment[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La rose 'Line Renaud' a obtenu treize prix dans les concours de roses internationaux, et notamment.
 En 2005, 
 Prix du parfum et certificat Grandes fleurs à Bagatelle,
 Premier prix du parfum et médaille d'or Grandes fleurs au Concours international de roses nouvelles du Rœulx (Belgique) ,
@@ -594,11 +612,11 @@
 « Plus belle rose de France » au concours international des roses de Lyon organisée par la Société française des roses,
 En 2007 
 Rose ADR  (Allgemeine Deutsche Rosenneuheitenprüfung) en Allemagne,
-Rose d'or de la ville de Hradec Králové (République tchèque)[9],
+Rose d'or de la ville de Hradec Králové (République tchèque),
 En 2008 
 Prix du parfum au concours des roses remontantes à Orléans,
-Grand prix de la rose SNHF toutes catégories (première édition du concours organisée par la Société nationale d'horticulture de France)[10],
-Médaille d'argent et prix de la rose la plus parfumée à l'Australian National Rose Trials (présentée sous le nom de 'Forget-Me-Not')[11].</t>
+Grand prix de la rose SNHF toutes catégories (première édition du concours organisée par la Société nationale d'horticulture de France),
+Médaille d'argent et prix de la rose la plus parfumée à l'Australian National Rose Trials (présentée sous le nom de 'Forget-Me-Not').</t>
         </is>
       </c>
     </row>
